--- a/FinalExcelwithCharts/Result.xlsx
+++ b/FinalExcelwithCharts/Result.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel\Desktop\Senior Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="21075" windowHeight="8775"/>
+    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Result2" sheetId="1" r:id="rId1"/>
     <sheet name="Greg's tests" sheetId="3" r:id="rId2"/>
     <sheet name="Charts" sheetId="2" r:id="rId3"/>
     <sheet name="Distance Prediction" sheetId="4" r:id="rId4"/>
+    <sheet name="Kevin's Tests" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>Method</t>
   </si>
@@ -86,6 +82,30 @@
   <si>
     <t>Greg's Time</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 1 -&gt; 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 -&gt; 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 -&gt; 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 -&gt; 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 -&gt; 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 -&gt; 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 -&gt; 5</t>
+  </si>
+  <si>
+    <t>Kevin's Computer Info</t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +113,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -585,10 +605,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -663,7 +683,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -927,7 +946,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1019,7 +1037,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1282,7 +1299,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1374,7 +1390,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1637,7 +1652,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1729,7 +1743,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1993,7 +2006,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2116,7 +2128,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2125,32 +2136,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2478,11 +2463,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="433861176"/>
-        <c:axId val="433861568"/>
+        <c:axId val="122739200"/>
+        <c:axId val="122637120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433861176"/>
+        <c:axId val="122739200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433861568"/>
+        <c:crossAx val="122637120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2532,7 +2517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433861568"/>
+        <c:axId val="122637120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,7 +2567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433861176"/>
+        <c:crossAx val="122739200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2596,7 +2581,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5438,6 +5422,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>159420</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5524500"/>
+          <a:ext cx="7342858" cy="1780953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5636,7 +5658,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5671,7 +5693,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5883,10 +5905,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5940,16 +5962,16 @@
       <c r="D2">
         <v>6</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>6.7383399999999996E-2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>6.2182000000000001E-2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>3.2335467E-2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <f>AVERAGE(E2:G2)</f>
         <v>5.396695566666667E-2</v>
       </c>
@@ -5967,16 +5989,16 @@
       <c r="D3">
         <v>0.90097499999999997</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1.2696300000000001E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>6.2182000000000001E-2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>7.3338329999999997E-3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f>AVERAGE(E3:G3)</f>
         <v>2.7404044333333336E-2</v>
       </c>
@@ -5994,16 +6016,16 @@
       <c r="D4">
         <v>77</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1.36732E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>4.8579700000000003E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>8.6672669999999993E-3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f>AVERAGE(E4:G4)</f>
         <v>2.364005566666667E-2</v>
       </c>
@@ -6021,16 +6043,16 @@
       <c r="D5">
         <v>64</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>3.22292E-2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>3.1091000000000001E-2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>3.9335966999999999E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f>AVERAGE(E5:G5)</f>
         <v>3.4218722333333333E-2</v>
       </c>
@@ -6111,6 +6133,11 @@
       </c>
       <c r="E14" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6128,7 +6155,7 @@
   <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H3" sqref="E3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6142,11 +6169,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -6323,4 +6350,258 @@
   <pageSetup scale="74" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>0.15626300000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.15626799999999999</v>
+      </c>
+      <c r="N2">
+        <v>0.15656900000000001</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(L2:N2)</f>
+        <v>0.15636666666666668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.89578800000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.90329000000000004</v>
+      </c>
+      <c r="D3">
+        <v>0.89908699999999997</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.89473999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.88696900000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.89578800000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.94930099999999995</v>
+      </c>
+      <c r="J3">
+        <v>0.90329000000000004</v>
+      </c>
+      <c r="K3">
+        <v>0.89908699999999997</v>
+      </c>
+      <c r="L3">
+        <v>6.2498100000000001E-2</v>
+      </c>
+      <c r="M3">
+        <v>1.5626600000000001E-2</v>
+      </c>
+      <c r="N3">
+        <v>1.53198E-2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O5" si="0">AVERAGE(L3:N3)</f>
+        <v>3.1148166666666668E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>109</v>
+      </c>
+      <c r="C4">
+        <v>109</v>
+      </c>
+      <c r="D4">
+        <v>109</v>
+      </c>
+      <c r="E4">
+        <v>109</v>
+      </c>
+      <c r="F4">
+        <v>119</v>
+      </c>
+      <c r="G4">
+        <v>119</v>
+      </c>
+      <c r="H4">
+        <v>119</v>
+      </c>
+      <c r="I4">
+        <v>112</v>
+      </c>
+      <c r="J4">
+        <v>112</v>
+      </c>
+      <c r="K4">
+        <v>113</v>
+      </c>
+      <c r="L4">
+        <v>4.6872999999999998E-2</v>
+      </c>
+      <c r="M4">
+        <v>3.1246699999999999E-2</v>
+      </c>
+      <c r="N4">
+        <v>3.1252599999999998E-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>3.6457433333333338E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>84</v>
+      </c>
+      <c r="E5">
+        <v>109</v>
+      </c>
+      <c r="F5">
+        <v>69</v>
+      </c>
+      <c r="G5">
+        <v>66</v>
+      </c>
+      <c r="H5">
+        <v>59</v>
+      </c>
+      <c r="I5">
+        <v>98</v>
+      </c>
+      <c r="J5">
+        <v>85</v>
+      </c>
+      <c r="K5">
+        <v>84</v>
+      </c>
+      <c r="L5">
+        <v>0.109378</v>
+      </c>
+      <c r="M5">
+        <v>9.3757099999999996E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.109384</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0.10417303333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FinalExcelwithCharts/Result.xlsx
+++ b/FinalExcelwithCharts/Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775"/>
+    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Result2" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Charts" sheetId="2" r:id="rId3"/>
     <sheet name="Distance Prediction" sheetId="4" r:id="rId4"/>
     <sheet name="Kevin's Tests" sheetId="5" r:id="rId5"/>
+    <sheet name="Marlene's Tests" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>Method</t>
   </si>
@@ -2463,11 +2464,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="122739200"/>
-        <c:axId val="122637120"/>
+        <c:axId val="132253184"/>
+        <c:axId val="132403136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122739200"/>
+        <c:axId val="132253184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,7 +2510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122637120"/>
+        <c:crossAx val="132403136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2517,7 +2518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122637120"/>
+        <c:axId val="132403136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,7 +2568,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122739200"/>
+        <c:crossAx val="132253184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5907,7 +5908,7 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -6604,4 +6605,152 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>3.1157399999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.64671900000000004</v>
+      </c>
+      <c r="C3">
+        <v>0.70674199999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.47647499999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.85464099999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.84947399999999995</v>
+      </c>
+      <c r="G3">
+        <v>0.60762000000000005</v>
+      </c>
+      <c r="H3">
+        <v>1.5578699999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>3.1157399999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-21</v>
+      </c>
+      <c r="C5">
+        <v>-6</v>
+      </c>
+      <c r="D5">
+        <v>-47</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>-9</v>
+      </c>
+      <c r="G5">
+        <v>-12</v>
+      </c>
+      <c r="H5">
+        <v>4.6736100000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FinalExcelwithCharts/Result.xlsx
+++ b/FinalExcelwithCharts/Result.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlclab\Documents\GitHub\DigitalHumanities\FinalExcelwithCharts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775" activeTab="5"/>
+    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Result2" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <sheet name="Kevin's Tests" sheetId="5" r:id="rId5"/>
     <sheet name="Marlene's Tests" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
   <si>
     <t>Method</t>
   </si>
@@ -106,6 +111,12 @@
   </si>
   <si>
     <t>Kevin's Computer Info</t>
+  </si>
+  <si>
+    <t>Marlene's Data</t>
+  </si>
+  <si>
+    <t>Emily Dickenson's poem</t>
   </si>
 </sst>
 </file>
@@ -684,6 +695,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -947,6 +959,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1038,6 +1051,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1300,6 +1314,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1391,6 +1406,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1653,6 +1669,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1744,6 +1761,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2007,6 +2025,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2129,6 +2148,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2137,6 +2157,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2462,18 +2508,71 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="132253184"/>
-        <c:axId val="132403136"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="317161328"/>
+        <c:axId val="317161720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132253184"/>
+        <c:axId val="317161328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2510,7 +2609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132403136"/>
+        <c:crossAx val="317161720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2518,9 +2617,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132403136"/>
+        <c:axId val="317161720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2538,8 +2638,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Order  of Files Determined by Algorithms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2568,9 +2722,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132253184"/>
+        <c:crossAx val="317161328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2581,7 +2736,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5330,7 +5486,7 @@
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5593,7 +5749,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663836" cy="6289110"/>
+    <xdr:ext cx="8668712" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5659,7 +5815,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5694,7 +5850,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5908,7 +6064,7 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -6155,7 +6311,7 @@
   </sheetPr>
   <dimension ref="A2:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="E3:H3"/>
     </sheetView>
   </sheetViews>
@@ -6609,10 +6765,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6620,134 +6776,289 @@
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3">
         <v>28</v>
       </c>
-      <c r="C2">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
         <v>19</v>
       </c>
-      <c r="D2">
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
         <v>32</v>
       </c>
-      <c r="E2">
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>4.6423199999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.70674199999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.47647499999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.64671900000000004</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.60762000000000005</v>
+      </c>
+      <c r="G4">
+        <v>0.85464099999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.70674199999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.84947399999999995</v>
+      </c>
+      <c r="J4">
+        <v>0.47611700000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.64671900000000004</v>
+      </c>
+      <c r="L4">
+        <v>1.5474399999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>31</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <v>7.7371999999999996E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>-47</v>
+      </c>
+      <c r="D6">
+        <v>-21</v>
+      </c>
+      <c r="E6">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>-12</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>-6</v>
+      </c>
+      <c r="I6">
+        <v>-9</v>
+      </c>
+      <c r="J6">
+        <v>-47</v>
+      </c>
+      <c r="K6">
+        <v>-21</v>
+      </c>
+      <c r="L6">
+        <v>3.8685999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
         <v>11</v>
       </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>3.1157399999999998E-2</v>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>3.8928999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>0.64671900000000004</v>
-      </c>
-      <c r="C3">
-        <v>0.70674199999999998</v>
-      </c>
-      <c r="D3">
-        <v>0.47647499999999998</v>
-      </c>
-      <c r="E3">
-        <v>0.85464099999999998</v>
-      </c>
-      <c r="F3">
-        <v>0.84947399999999995</v>
-      </c>
-      <c r="G3">
-        <v>0.60762000000000005</v>
-      </c>
-      <c r="H3">
-        <v>1.5578699999999999E-2</v>
+      <c r="B11">
+        <v>0.83084000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.899733</v>
+      </c>
+      <c r="D11">
+        <v>0.90097499999999997</v>
+      </c>
+      <c r="E11">
+        <v>7.7857999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B12">
         <v>37</v>
       </c>
-      <c r="C4">
-        <v>37</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>44</v>
-      </c>
-      <c r="F4">
-        <v>33</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>3.1157399999999998E-2</v>
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>7.7857999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>-21</v>
-      </c>
-      <c r="C5">
-        <v>-6</v>
-      </c>
-      <c r="D5">
-        <v>-47</v>
-      </c>
-      <c r="E5">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>-9</v>
-      </c>
-      <c r="G5">
-        <v>-12</v>
-      </c>
-      <c r="H5">
-        <v>4.6736100000000003E-2</v>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>2.33574E-2</v>
       </c>
     </row>
   </sheetData>

--- a/FinalExcelwithCharts/Result.xlsx
+++ b/FinalExcelwithCharts/Result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>Method</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>Emily Dickenson's poem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average </t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -695,7 +704,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -959,7 +967,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1051,7 +1058,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1314,7 +1320,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1406,7 +1411,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1669,7 +1673,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1761,7 +1764,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2025,7 +2027,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2148,7 +2149,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2509,11 +2509,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="317161328"/>
-        <c:axId val="317161720"/>
+        <c:axId val="246522264"/>
+        <c:axId val="246522656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317161328"/>
+        <c:axId val="246522264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2544,7 +2544,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2609,7 +2608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317161720"/>
+        <c:crossAx val="246522656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2617,7 +2616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317161720"/>
+        <c:axId val="246522656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2663,7 +2662,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2722,7 +2720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317161328"/>
+        <c:crossAx val="246522264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2737,7 +2735,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6765,10 +6762,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6776,12 +6773,12 @@
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6816,10 +6813,19 @@
         <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6856,8 +6862,18 @@
       <c r="L3">
         <v>4.6423199999999998E-2</v>
       </c>
+      <c r="M3">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="N3">
+        <v>3.90625E-2</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(L3:N3)</f>
+        <v>4.6724399999999999E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6894,8 +6910,18 @@
       <c r="L4">
         <v>1.5474399999999999E-2</v>
       </c>
+      <c r="M4">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="N4">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O6" si="0">AVERAGE(L4:N4)</f>
+        <v>1.8178966666666668E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6932,8 +6958,18 @@
       <c r="L5">
         <v>7.7371999999999996E-3</v>
       </c>
+      <c r="M5">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="N5">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>1.0391566666666666E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6970,13 +7006,23 @@
       <c r="L6">
         <v>3.8685999999999998E-2</v>
       </c>
+      <c r="M6">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N6">
+        <v>3.90625E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>3.6332833333333335E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -6990,10 +7036,19 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -7009,8 +7064,18 @@
       <c r="E10">
         <v>3.8928999999999998E-2</v>
       </c>
+      <c r="F10">
+        <v>3.90625E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(E10:G10)</f>
+        <v>3.6413833333333333E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -7026,8 +7091,18 @@
       <c r="E11">
         <v>7.7857999999999998E-3</v>
       </c>
+      <c r="F11">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G11">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H13" si="1">AVERAGE(E11:G11)</f>
+        <v>7.8035999999999999E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -7043,8 +7118,18 @@
       <c r="E12">
         <v>7.7857999999999998E-3</v>
       </c>
+      <c r="F12">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G12">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>7.8035999999999999E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -7059,6 +7144,16 @@
       </c>
       <c r="E13">
         <v>2.33574E-2</v>
+      </c>
+      <c r="F13">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="G13">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>2.3410799999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/FinalExcelwithCharts/Result.xlsx
+++ b/FinalExcelwithCharts/Result.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlclab\Documents\GitHub\DigitalHumanities\FinalExcelwithCharts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775" activeTab="1"/>
+    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Result2" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="Kevin's Tests" sheetId="5" r:id="rId5"/>
     <sheet name="Marlene's Tests" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2157,32 +2152,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2509,11 +2478,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="246522264"/>
-        <c:axId val="246522656"/>
+        <c:axId val="137968128"/>
+        <c:axId val="138105344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246522264"/>
+        <c:axId val="137968128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,25 +2521,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2608,7 +2558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246522656"/>
+        <c:crossAx val="138105344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2616,7 +2566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246522656"/>
+        <c:axId val="138105344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2670,25 +2620,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2720,7 +2651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246522264"/>
+        <c:crossAx val="137968128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5812,7 +5743,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5847,7 +5778,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6308,7 +6239,7 @@
   </sheetPr>
   <dimension ref="A2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="E3:H3"/>
     </sheetView>
   </sheetViews>
@@ -6510,8 +6441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6598,17 +6529,17 @@
         <v>10</v>
       </c>
       <c r="L2">
-        <v>0.15626300000000001</v>
+        <v>0.154304</v>
       </c>
       <c r="M2">
-        <v>0.15626799999999999</v>
+        <v>0.164076</v>
       </c>
       <c r="N2">
-        <v>0.15656900000000001</v>
+        <v>0.165051</v>
       </c>
       <c r="O2">
         <f>AVERAGE(L2:N2)</f>
-        <v>0.15636666666666668</v>
+        <v>0.16114366666666666</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -6646,17 +6577,17 @@
         <v>0.89908699999999997</v>
       </c>
       <c r="L3">
-        <v>6.2498100000000001E-2</v>
+        <v>2.2464000000000001E-2</v>
       </c>
       <c r="M3">
-        <v>1.5626600000000001E-2</v>
+        <v>6.3476199999999997E-2</v>
       </c>
       <c r="N3">
-        <v>1.53198E-2</v>
+        <v>6.2502299999999997E-2</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O5" si="0">AVERAGE(L3:N3)</f>
-        <v>3.1148166666666668E-2</v>
+        <v>4.9480833333333328E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -6664,47 +6595,47 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C4">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>109</v>
       </c>
       <c r="F4">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="G4">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="H4">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="I4">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="J4">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="L4">
-        <v>4.6872999999999998E-2</v>
+        <v>2.44218E-2</v>
       </c>
       <c r="M4">
-        <v>3.1246699999999999E-2</v>
+        <v>6.1529300000000002E-2</v>
       </c>
       <c r="N4">
-        <v>3.1252599999999998E-2</v>
+        <v>3.6135E-2</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>3.6457433333333338E-2</v>
+        <v>4.069536666666667E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -6742,17 +6673,17 @@
         <v>84</v>
       </c>
       <c r="L5">
-        <v>0.109378</v>
+        <v>0.112313</v>
       </c>
       <c r="M5">
-        <v>9.3757099999999996E-2</v>
+        <v>0.11622</v>
       </c>
       <c r="N5">
-        <v>0.109384</v>
+        <v>0.108406</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0.10417303333333333</v>
+        <v>0.112313</v>
       </c>
     </row>
   </sheetData>

--- a/FinalExcelwithCharts/Result.xlsx
+++ b/FinalExcelwithCharts/Result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775" activeTab="5"/>
+    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Result2" sheetId="1" r:id="rId1"/>
@@ -722,10 +722,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -769,8 +769,10 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -785,26 +787,74 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -837,24 +887,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -887,24 +938,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -937,6 +989,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
@@ -987,24 +1040,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -1037,24 +1091,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -1087,27 +1142,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -1140,27 +1193,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -1193,27 +1244,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -1246,27 +1295,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -1297,61 +1344,6 @@
               </a:sp3d>
             </c:spPr>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="95000"/>
-                      <a:alpha val="54000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Greg''s tests'!$B$11:$K$11</c:f>
@@ -1432,15 +1424,119 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="1"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="329893352"/>
+        <c:axId val="329888648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="329893352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329888648"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="329888648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329893352"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1449,6 +1545,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1552,7 +1679,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1703,17 +1830,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="311106752"/>
-        <c:axId val="311103616"/>
+        <c:axId val="329409352"/>
+        <c:axId val="329409744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="311106752"/>
+        <c:axId val="329409352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1750,7 +1876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311103616"/>
+        <c:crossAx val="329409744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1758,12 +1884,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311103616"/>
+        <c:axId val="329409744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1808,7 +1934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311106752"/>
+        <c:crossAx val="329409352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1923,7 +2049,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -2074,17 +2200,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="337521384"/>
-        <c:axId val="337522952"/>
+        <c:axId val="329410528"/>
+        <c:axId val="329410920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337521384"/>
+        <c:axId val="329410528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2121,7 +2246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337522952"/>
+        <c:crossAx val="329410920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2129,12 +2254,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337522952"/>
+        <c:axId val="329410920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2179,7 +2304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337521384"/>
+        <c:crossAx val="329410528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2294,7 +2419,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -2445,17 +2570,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="337524128"/>
-        <c:axId val="337524912"/>
+        <c:axId val="329411704"/>
+        <c:axId val="329412096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337524128"/>
+        <c:axId val="329411704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2492,7 +2616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337524912"/>
+        <c:crossAx val="329412096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2500,12 +2624,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337524912"/>
+        <c:axId val="329412096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2550,7 +2674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337524128"/>
+        <c:crossAx val="329411704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3028,11 +3152,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="310086072"/>
-        <c:axId val="337521776"/>
+        <c:axId val="329412880"/>
+        <c:axId val="329413272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="310086072"/>
+        <c:axId val="329412880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3074,7 +3198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337521776"/>
+        <c:crossAx val="329413272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3082,7 +3206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337521776"/>
+        <c:axId val="329413272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3132,7 +3256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310086072"/>
+        <c:crossAx val="329412880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3230,10 +3354,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3277,8 +3401,10 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3293,26 +3419,74 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -3345,24 +3519,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -3395,24 +3570,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -3445,6 +3621,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:explosion val="23"/>
             <c:spPr>
@@ -3496,24 +3673,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -3546,24 +3724,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -3596,27 +3775,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -3649,27 +3826,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -3702,27 +3877,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -3755,27 +3928,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -3806,61 +3977,6 @@
               </a:sp3d>
             </c:spPr>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="95000"/>
-                      <a:alpha val="54000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Greg''s tests'!$B$11:$K$11</c:f>
@@ -3941,15 +4057,119 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="1"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="385143760"/>
+        <c:axId val="385139840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="385143760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385139840"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="385139840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385143760"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3958,6 +4178,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4013,10 +4264,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -4060,8 +4311,10 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4076,26 +4329,74 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -4128,24 +4429,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -4178,24 +4480,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -4228,6 +4531,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:explosion val="26"/>
             <c:spPr>
@@ -4279,24 +4583,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -4329,24 +4634,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -4379,27 +4685,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -4432,27 +4736,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -4485,27 +4787,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -4538,27 +4838,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -4589,61 +4887,6 @@
               </a:sp3d>
             </c:spPr>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="95000"/>
-                      <a:alpha val="54000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Greg''s tests'!$B$11:$K$11</c:f>
@@ -4724,15 +4967,119 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="1"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="343867976"/>
+        <c:axId val="343865232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="343867976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343865232"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="343865232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343867976"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4741,6 +5088,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4796,10 +5174,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -4843,8 +5221,10 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4859,26 +5239,74 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -4911,24 +5339,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -4961,24 +5390,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -5011,6 +5441,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:explosion val="27"/>
             <c:spPr>
@@ -5062,24 +5493,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -5112,24 +5544,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -5162,27 +5595,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -5215,27 +5646,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -5268,27 +5697,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent4">
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -5321,27 +5748,25 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
                       <a:shade val="51000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="80000">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
                       <a:shade val="93000"/>
                       <a:satMod val="130000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
                       <a:shade val="94000"/>
                       <a:satMod val="135000"/>
                     </a:schemeClr>
@@ -5372,61 +5797,6 @@
               </a:sp3d>
             </c:spPr>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="95000"/>
-                      <a:alpha val="54000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Greg''s tests'!$B$11:$K$11</c:f>
@@ -5507,15 +5877,119 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="1"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="343866016"/>
+        <c:axId val="343868368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="343866016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343868368"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="343868368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343866016"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5524,6 +5998,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5779,11 +6284,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="245632608"/>
-        <c:axId val="245633392"/>
+        <c:axId val="253083808"/>
+        <c:axId val="253083416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245632608"/>
+        <c:axId val="253083808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5825,14 +6330,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245633392"/>
+        <c:crossAx val="253083416"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245633392"/>
+        <c:axId val="253083416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5882,7 +6388,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245632608"/>
+        <c:crossAx val="253083808"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -6179,11 +6686,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="311105968"/>
-        <c:axId val="311105576"/>
+        <c:axId val="253082240"/>
+        <c:axId val="253081064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="311105968"/>
+        <c:axId val="253082240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6225,14 +6732,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311105576"/>
+        <c:crossAx val="253081064"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311105576"/>
+        <c:axId val="253081064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6282,7 +6790,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311105968"/>
+        <c:crossAx val="253082240"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -6579,11 +7088,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="310083328"/>
-        <c:axId val="310080976"/>
+        <c:axId val="329406216"/>
+        <c:axId val="329406608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="310083328"/>
+        <c:axId val="329406216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6625,7 +7134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310080976"/>
+        <c:crossAx val="329406608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6633,7 +7142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310080976"/>
+        <c:axId val="329406608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6683,7 +7192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310083328"/>
+        <c:crossAx val="329406216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6981,11 +7490,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="308391744"/>
-        <c:axId val="308391352"/>
+        <c:axId val="329407392"/>
+        <c:axId val="329407784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="308391744"/>
+        <c:axId val="329407392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7027,7 +7536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308391352"/>
+        <c:crossAx val="329407784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7035,7 +7544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308391352"/>
+        <c:axId val="329407784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7085,7 +7594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308391744"/>
+        <c:crossAx val="329407392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7231,7 +7740,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -7382,17 +7891,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="311102440"/>
-        <c:axId val="311105184"/>
+        <c:axId val="253082632"/>
+        <c:axId val="329408568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="311102440"/>
+        <c:axId val="253082632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7429,7 +7937,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311105184"/>
+        <c:crossAx val="329408568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7437,12 +7945,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311105184"/>
+        <c:axId val="329408568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -7487,7 +7995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311102440"/>
+        <c:crossAx val="253082632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7548,42 +8056,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -7739,122 +8213,20 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -16081,8 +16453,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16095,7 +16467,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="5" tint="-0.499984740745262"/>
+    <tabColor theme="3" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:O5"/>
   <sheetViews>
@@ -16356,11 +16728,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="5" tint="0.39997558519241921"/>
+    <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -16374,11 +16746,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="6" tint="-0.499984740745262"/>
+    <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -16779,12 +17151,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="6" tint="0.39997558519241921"/>
+    <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16797,12 +17169,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
+    <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FinalExcelwithCharts/Result.xlsx
+++ b/FinalExcelwithCharts/Result.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malana\Documents\GitHub\DigitalHumanities\FinalExcelwithCharts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Result2" sheetId="1" r:id="rId1"/>
@@ -21,12 +16,12 @@
     <sheet name="Charts from Marlene's Data" sheetId="9" r:id="rId7"/>
     <sheet name="Time Comparison" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="41">
   <si>
     <t>Method</t>
   </si>
@@ -730,7 +725,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -838,511 +832,51 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1431,11 +965,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329893352"/>
-        <c:axId val="329888648"/>
+        <c:axId val="68505088"/>
+        <c:axId val="108818368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329893352"/>
+        <c:axId val="68505088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,14 +1011,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329888648"/>
+        <c:crossAx val="108818368"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329888648"/>
+        <c:axId val="108818368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1069,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329893352"/>
+        <c:crossAx val="68505088"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1547,7 +1083,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1639,7 +1174,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1830,11 +1364,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:axId val="329409352"/>
-        <c:axId val="329409744"/>
+        <c:axId val="70679040"/>
+        <c:axId val="70119936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329409352"/>
+        <c:axId val="70679040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +1410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329409744"/>
+        <c:crossAx val="70119936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1884,7 +1418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329409744"/>
+        <c:axId val="70119936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +1468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329409352"/>
+        <c:crossAx val="70679040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2009,7 +1543,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2200,11 +1733,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:axId val="329410528"/>
-        <c:axId val="329410920"/>
+        <c:axId val="70679552"/>
+        <c:axId val="70121664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329410528"/>
+        <c:axId val="70679552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2246,7 +1779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329410920"/>
+        <c:crossAx val="70121664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2254,7 +1787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329410920"/>
+        <c:axId val="70121664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2304,7 +1837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329410528"/>
+        <c:crossAx val="70679552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2379,7 +1912,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2570,11 +2102,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:axId val="329411704"/>
-        <c:axId val="329412096"/>
+        <c:axId val="70680064"/>
+        <c:axId val="69107712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329411704"/>
+        <c:axId val="70680064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,7 +2148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329412096"/>
+        <c:crossAx val="69107712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2624,7 +2156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329412096"/>
+        <c:axId val="69107712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2674,7 +2206,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329411704"/>
+        <c:crossAx val="70680064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3152,11 +2684,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="329412880"/>
-        <c:axId val="329413272"/>
+        <c:axId val="70993920"/>
+        <c:axId val="69109440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329412880"/>
+        <c:axId val="70993920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3198,7 +2730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329413272"/>
+        <c:crossAx val="69109440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3206,7 +2738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329413272"/>
+        <c:axId val="69109440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +2788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329412880"/>
+        <c:crossAx val="70993920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3362,7 +2894,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3470,512 +3001,52 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:explosion val="23"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4064,11 +3135,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="385143760"/>
-        <c:axId val="385139840"/>
+        <c:axId val="68724224"/>
+        <c:axId val="108820096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="385143760"/>
+        <c:axId val="68724224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4110,14 +3181,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385139840"/>
+        <c:crossAx val="108820096"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="385139840"/>
+        <c:axId val="108820096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4167,7 +3239,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385143760"/>
+        <c:crossAx val="68724224"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -4180,7 +3253,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4272,7 +3344,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4380,512 +3451,52 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:explosion val="26"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4974,11 +3585,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="343867976"/>
-        <c:axId val="343865232"/>
+        <c:axId val="68724736"/>
+        <c:axId val="108821824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="343867976"/>
+        <c:axId val="68724736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5020,14 +3631,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343865232"/>
+        <c:crossAx val="108821824"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343865232"/>
+        <c:axId val="108821824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5077,7 +3689,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343867976"/>
+        <c:crossAx val="68724736"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -5090,7 +3703,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5182,7 +3794,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5290,512 +3901,52 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:explosion val="27"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -5884,11 +4035,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="343866016"/>
-        <c:axId val="343868368"/>
+        <c:axId val="68725248"/>
+        <c:axId val="70059136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="343866016"/>
+        <c:axId val="68725248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5930,14 +4081,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343868368"/>
+        <c:crossAx val="70059136"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343868368"/>
+        <c:axId val="70059136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5987,7 +4139,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343866016"/>
+        <c:crossAx val="68725248"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -6000,7 +4153,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6092,7 +4244,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6284,11 +4435,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="253083808"/>
-        <c:axId val="253083416"/>
+        <c:axId val="47221248"/>
+        <c:axId val="70061440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253083808"/>
+        <c:axId val="47221248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6330,7 +4481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253083416"/>
+        <c:crossAx val="70061440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6338,7 +4489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253083416"/>
+        <c:axId val="70061440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6388,7 +4539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253083808"/>
+        <c:crossAx val="47221248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6402,7 +4553,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6494,7 +4644,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6686,11 +4835,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="253082240"/>
-        <c:axId val="253081064"/>
+        <c:axId val="69920256"/>
+        <c:axId val="70063168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253082240"/>
+        <c:axId val="69920256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6732,7 +4881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253081064"/>
+        <c:crossAx val="70063168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6740,7 +4889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253081064"/>
+        <c:axId val="70063168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6790,7 +4939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253082240"/>
+        <c:crossAx val="69920256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6804,7 +4953,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6896,7 +5044,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7088,11 +5235,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="329406216"/>
-        <c:axId val="329406608"/>
+        <c:axId val="69920768"/>
+        <c:axId val="70064896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329406216"/>
+        <c:axId val="69920768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7134,7 +5281,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329406608"/>
+        <c:crossAx val="70064896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7142,7 +5289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329406608"/>
+        <c:axId val="70064896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7192,7 +5339,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329406216"/>
+        <c:crossAx val="69920768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7206,7 +5353,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7298,7 +5444,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7490,11 +5635,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="329407392"/>
-        <c:axId val="329407784"/>
+        <c:axId val="69921280"/>
+        <c:axId val="70115904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329407392"/>
+        <c:axId val="69921280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7536,7 +5681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329407784"/>
+        <c:crossAx val="70115904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7544,7 +5689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329407784"/>
+        <c:axId val="70115904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7594,7 +5739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329407392"/>
+        <c:crossAx val="69921280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7608,7 +5753,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7700,7 +5844,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7891,11 +6034,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:axId val="253082632"/>
-        <c:axId val="329408568"/>
+        <c:axId val="70678016"/>
+        <c:axId val="70118208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253082632"/>
+        <c:axId val="70678016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7937,7 +6080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329408568"/>
+        <c:crossAx val="70118208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7945,7 +6088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329408568"/>
+        <c:axId val="70118208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7995,7 +6138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253082632"/>
+        <c:crossAx val="70678016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15172,13 +13315,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>8608</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>66453</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15586,7 +13729,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15621,7 +13764,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16469,10 +14612,10 @@
   <sheetPr>
     <tabColor theme="3" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16719,9 +14862,144 @@
         <v>0.112313</v>
       </c>
     </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>2.63707E-2</v>
+      </c>
+      <c r="F10">
+        <v>3.4180000000000002E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.9066700000000003E-2</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(E10:G10)</f>
+        <v>3.3205800000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0.83084000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.899733</v>
+      </c>
+      <c r="D11">
+        <v>0.90097499999999997</v>
+      </c>
+      <c r="E11">
+        <v>5.8551999999999996E-3</v>
+      </c>
+      <c r="F11">
+        <v>2.24548E-2</v>
+      </c>
+      <c r="G11">
+        <v>2.2455900000000001E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H13" si="1">AVERAGE(E11:G11)</f>
+        <v>1.6921966666666666E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>5.8605000000000003E-3</v>
+      </c>
+      <c r="F12">
+        <v>2.1484300000000001E-2</v>
+      </c>
+      <c r="G12">
+        <v>2.1485899999999999E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1.62769E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>2.05124E-2</v>
+      </c>
+      <c r="F13">
+        <v>2.6367600000000001E-2</v>
+      </c>
+      <c r="G13">
+        <v>3.0274300000000001E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>2.5718100000000004E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17173,7 +15451,7 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/FinalExcelwithCharts/Result.xlsx
+++ b/FinalExcelwithCharts/Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Result2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="43">
   <si>
     <t>Method</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t xml:space="preserve">Note: The data files differs in length. </t>
+  </si>
+  <si>
+    <t>Dickinson</t>
+  </si>
+  <si>
+    <t>My Input</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -593,6 +599,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -639,7 +725,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -651,6 +737,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -965,11 +1066,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68505088"/>
-        <c:axId val="108818368"/>
+        <c:axId val="130049536"/>
+        <c:axId val="128454016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68505088"/>
+        <c:axId val="130049536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108818368"/>
+        <c:crossAx val="128454016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1019,7 +1120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108818368"/>
+        <c:axId val="128454016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,7 +1170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68505088"/>
+        <c:crossAx val="130049536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1364,11 +1465,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:axId val="70679040"/>
-        <c:axId val="70119936"/>
+        <c:axId val="131561984"/>
+        <c:axId val="128741312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70679040"/>
+        <c:axId val="131561984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70119936"/>
+        <c:crossAx val="128741312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1418,7 +1519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70119936"/>
+        <c:axId val="128741312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70679040"/>
+        <c:crossAx val="131561984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1733,11 +1834,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:axId val="70679552"/>
-        <c:axId val="70121664"/>
+        <c:axId val="131063808"/>
+        <c:axId val="128743040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70679552"/>
+        <c:axId val="131063808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1779,7 +1880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70121664"/>
+        <c:crossAx val="128743040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1787,7 +1888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70121664"/>
+        <c:axId val="128743040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,7 +1938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70679552"/>
+        <c:crossAx val="131063808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2102,11 +2203,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:axId val="70680064"/>
-        <c:axId val="69107712"/>
+        <c:axId val="131064320"/>
+        <c:axId val="128744768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70680064"/>
+        <c:axId val="131064320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,7 +2249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69107712"/>
+        <c:crossAx val="128744768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2156,7 +2257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69107712"/>
+        <c:axId val="128744768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70680064"/>
+        <c:crossAx val="131064320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2684,11 +2785,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="70993920"/>
-        <c:axId val="69109440"/>
+        <c:axId val="131133440"/>
+        <c:axId val="132056192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70993920"/>
+        <c:axId val="131133440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,7 +2831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69109440"/>
+        <c:crossAx val="132056192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2738,7 +2839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69109440"/>
+        <c:axId val="132056192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2788,7 +2889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70993920"/>
+        <c:crossAx val="131133440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2802,7 +2903,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3135,11 +3235,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68724224"/>
-        <c:axId val="108820096"/>
+        <c:axId val="130050560"/>
+        <c:axId val="128455744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68724224"/>
+        <c:axId val="130050560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3181,7 +3281,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108820096"/>
+        <c:crossAx val="128455744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3189,7 +3289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108820096"/>
+        <c:axId val="128455744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3239,7 +3339,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68724224"/>
+        <c:crossAx val="130050560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3585,11 +3685,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68724736"/>
-        <c:axId val="108821824"/>
+        <c:axId val="130051072"/>
+        <c:axId val="128457472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68724736"/>
+        <c:axId val="130051072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,7 +3731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108821824"/>
+        <c:crossAx val="128457472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3639,7 +3739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108821824"/>
+        <c:axId val="128457472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3689,7 +3789,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68724736"/>
+        <c:crossAx val="130051072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4035,11 +4135,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68725248"/>
-        <c:axId val="70059136"/>
+        <c:axId val="130051584"/>
+        <c:axId val="130646592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68725248"/>
+        <c:axId val="130051584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4081,7 +4181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70059136"/>
+        <c:crossAx val="130646592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4089,7 +4189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70059136"/>
+        <c:axId val="130646592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4139,7 +4239,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68725248"/>
+        <c:crossAx val="130051584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4435,11 +4535,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="47221248"/>
-        <c:axId val="70061440"/>
+        <c:axId val="131134976"/>
+        <c:axId val="130648896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47221248"/>
+        <c:axId val="131134976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4481,7 +4581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70061440"/>
+        <c:crossAx val="130648896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4489,7 +4589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70061440"/>
+        <c:axId val="130648896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4539,7 +4639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47221248"/>
+        <c:crossAx val="131134976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4835,11 +4935,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="69920256"/>
-        <c:axId val="70063168"/>
+        <c:axId val="131136000"/>
+        <c:axId val="130650624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69920256"/>
+        <c:axId val="131136000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4881,7 +4981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70063168"/>
+        <c:crossAx val="130650624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4889,7 +4989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70063168"/>
+        <c:axId val="130650624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4939,7 +5039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69920256"/>
+        <c:crossAx val="131136000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5235,11 +5335,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="69920768"/>
-        <c:axId val="70064896"/>
+        <c:axId val="131136512"/>
+        <c:axId val="130652352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69920768"/>
+        <c:axId val="131136512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5281,7 +5381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70064896"/>
+        <c:crossAx val="130652352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5289,7 +5389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70064896"/>
+        <c:axId val="130652352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5339,7 +5439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69920768"/>
+        <c:crossAx val="131136512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5635,11 +5735,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="69921280"/>
-        <c:axId val="70115904"/>
+        <c:axId val="131137024"/>
+        <c:axId val="128737280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69921280"/>
+        <c:axId val="131137024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5681,7 +5781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70115904"/>
+        <c:crossAx val="128737280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5689,7 +5789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70115904"/>
+        <c:axId val="128737280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5739,7 +5839,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69921280"/>
+        <c:crossAx val="131137024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6034,11 +6134,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:axId val="70678016"/>
-        <c:axId val="70118208"/>
+        <c:axId val="131560960"/>
+        <c:axId val="128739584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70678016"/>
+        <c:axId val="131560960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6080,7 +6180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70118208"/>
+        <c:crossAx val="128739584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6088,7 +6188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70118208"/>
+        <c:axId val="128739584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6138,7 +6238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70678016"/>
+        <c:crossAx val="131560960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14612,10 +14712,10 @@
   <sheetPr>
     <tabColor theme="3" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14627,46 +14727,46 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -14674,46 +14774,46 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="9">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="9">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="9">
         <v>17</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="9">
         <v>18</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="9">
         <v>20</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="9">
         <v>5</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="9">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="9">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="9">
         <v>0.154304</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="9">
         <v>0.164076</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="9">
         <v>0.165051</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="10">
         <f>AVERAGE(L2:N2)</f>
         <v>0.16114366666666666</v>
       </c>
@@ -14722,46 +14822,46 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>0.89578800000000003</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>0.90329000000000004</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>0.89908699999999997</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="9">
         <v>0.89473999999999998</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="9">
         <v>0.88696900000000001</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="9">
         <v>0.89578800000000003</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="9">
         <v>0.94930099999999995</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="9">
         <v>0.90329000000000004</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="9">
         <v>0.89908699999999997</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="9">
         <v>2.2464000000000001E-2</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="9">
         <v>6.3476199999999997E-2</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="9">
         <v>6.2502299999999997E-2</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="10">
         <f t="shared" ref="O3:O5" si="0">AVERAGE(L3:N3)</f>
         <v>4.9480833333333328E-2</v>
       </c>
@@ -14770,46 +14870,46 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>84</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>55</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>55</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>109</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <v>55</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="9">
         <v>55</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="9">
         <v>88</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="9">
         <v>97</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="9">
         <v>52</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <v>52</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="9">
         <v>2.44218E-2</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="9">
         <v>6.1529300000000002E-2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="9">
         <v>3.6135E-2</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="10">
         <f t="shared" si="0"/>
         <v>4.069536666666667E-2</v>
       </c>
@@ -14818,73 +14918,92 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>59</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>85</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>84</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>109</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>69</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
         <v>66</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
         <v>59</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="9">
         <v>98</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="9">
         <v>85</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="9">
         <v>84</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="9">
         <v>0.112313</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="9">
         <v>0.11622</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="9">
         <v>0.108406</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="10">
         <f t="shared" si="0"/>
         <v>0.112313</v>
       </c>
     </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -14892,25 +15011,25 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>2.63707E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <v>3.4180000000000002E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="9">
         <v>3.9066700000000003E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="10">
         <f>AVERAGE(E10:G10)</f>
         <v>3.3205800000000001E-2</v>
       </c>
@@ -14919,25 +15038,25 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>0.83084000000000002</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>0.899733</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>0.90097499999999997</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>5.8551999999999996E-3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>2.24548E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
         <v>2.2455900000000001E-2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="10">
         <f t="shared" ref="H11:H13" si="1">AVERAGE(E11:G11)</f>
         <v>1.6921966666666666E-2</v>
       </c>
@@ -14946,25 +15065,25 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>37</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <v>23</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>23</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <v>5.8605000000000003E-3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="9">
         <v>2.1484300000000001E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="9">
         <v>2.1485899999999999E-2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>1.62769E-2</v>
       </c>
@@ -14973,28 +15092,39 @@
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>50</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <v>40</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>64</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
         <v>2.05124E-2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <v>2.6367600000000001E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="9">
         <v>3.0274300000000001E-2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="10">
         <f t="shared" si="1"/>
         <v>2.5718100000000004E-2</v>
       </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FinalExcelwithCharts/Result.xlsx
+++ b/FinalExcelwithCharts/Result.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malana\Documents\GitHub\DigitalHumanities\FinalExcelwithCharts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="210" yWindow="195" windowWidth="21075" windowHeight="8775" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Result2" sheetId="1" r:id="rId1"/>
     <sheet name="Greg's tests" sheetId="3" r:id="rId2"/>
     <sheet name="Charts from Greg's Data" sheetId="7" r:id="rId3"/>
     <sheet name="Kevin's Tests" sheetId="5" r:id="rId4"/>
-    <sheet name="Charts from Kevin's Data" sheetId="8" r:id="rId5"/>
-    <sheet name="Marlene's Tests" sheetId="6" r:id="rId6"/>
-    <sheet name="Charts from Marlene's Data" sheetId="9" r:id="rId7"/>
-    <sheet name="Time Comparison" sheetId="10" r:id="rId8"/>
+    <sheet name="Sample of Time Complexity Chart" sheetId="11" r:id="rId5"/>
+    <sheet name="Charts from Kevin's Data" sheetId="8" r:id="rId6"/>
+    <sheet name="Marlene's Tests" sheetId="6" r:id="rId7"/>
+    <sheet name="Charts from Marlene's Data" sheetId="9" r:id="rId8"/>
+    <sheet name="Time Comparison" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
   <si>
     <t>Method</t>
   </si>
@@ -150,6 +156,51 @@
   </si>
   <si>
     <t>My Input</t>
+  </si>
+  <si>
+    <t>Emily Dickinson's Poem</t>
+  </si>
+  <si>
+    <t>Sparklines</t>
+  </si>
+  <si>
+    <t>Levenshtein's  - Greg</t>
+  </si>
+  <si>
+    <t>Levenshtein's - Kevin</t>
+  </si>
+  <si>
+    <t>Levenshtein's - Marlene</t>
+  </si>
+  <si>
+    <t>Jaro-Winkler - Greg</t>
+  </si>
+  <si>
+    <t>Jaro-Winkler - Kevin</t>
+  </si>
+  <si>
+    <t>Jaro-Winkler - Marlene</t>
+  </si>
+  <si>
+    <t>Hunt-McIlroy - Greg</t>
+  </si>
+  <si>
+    <t>Hunt-McIlroy - Kevin</t>
+  </si>
+  <si>
+    <t>Hint-McIlroy - Marlene</t>
+  </si>
+  <si>
+    <t>Needleman-Wunsch - Greg</t>
+  </si>
+  <si>
+    <t>Needleman-Wunsch - Kevin</t>
+  </si>
+  <si>
+    <t>Needleman-Wunsch - Marlene</t>
+  </si>
+  <si>
+    <t>Average of averages:</t>
   </si>
 </sst>
 </file>
@@ -725,7 +776,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -733,9 +784,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,6 +800,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="17" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="17" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1066,11 +1130,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="130049536"/>
-        <c:axId val="128454016"/>
+        <c:axId val="343043576"/>
+        <c:axId val="343043968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130049536"/>
+        <c:axId val="343043576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128454016"/>
+        <c:crossAx val="343043968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1120,7 +1184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128454016"/>
+        <c:axId val="343043968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130049536"/>
+        <c:crossAx val="343043576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1322,7 +1386,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Marlene''s Tests'!$A$4</c:f>
+              <c:f>'Kevin''s Tests'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1335,19 +1399,19 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:shade val="51000"/>
                     <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="80000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:shade val="93000"/>
                     <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:shade val="94000"/>
                     <a:satMod val="135000"/>
                   </a:schemeClr>
@@ -1380,7 +1444,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Marlene''s Tests'!$B$2:$K$2</c:f>
+              <c:f>'Kevin''s Tests'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1418,39 +1482,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Marlene''s Tests'!$B$4:$K$4</c:f>
+              <c:f>'Kevin''s Tests'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.70674199999999998</c:v>
+                  <c:v>0.89578800000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47647499999999998</c:v>
+                  <c:v>0.90329000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64671900000000004</c:v>
+                  <c:v>0.89908699999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60762000000000005</c:v>
+                  <c:v>0.89473999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85464099999999998</c:v>
+                  <c:v>0.88696900000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70674199999999998</c:v>
+                  <c:v>0.89578800000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84947399999999995</c:v>
+                  <c:v>0.94930099999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47611700000000001</c:v>
+                  <c:v>0.90329000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64671900000000004</c:v>
+                  <c:v>0.89908699999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,12 +1528,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:axId val="131561984"/>
-        <c:axId val="128741312"/>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="343049456"/>
+        <c:axId val="343049848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131561984"/>
+        <c:axId val="343049456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,7 +1576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128741312"/>
+        <c:crossAx val="343049848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1519,7 +1584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128741312"/>
+        <c:axId val="343049848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1569,7 +1634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131561984"/>
+        <c:crossAx val="343049456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1581,6 +1646,36 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1691,7 +1786,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Marlene''s Tests'!$A$5</c:f>
+              <c:f>'Kevin''s Tests'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1704,19 +1799,19 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:shade val="51000"/>
                     <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="80000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:shade val="93000"/>
                     <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:shade val="94000"/>
                     <a:satMod val="135000"/>
                   </a:schemeClr>
@@ -1749,7 +1844,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Marlene''s Tests'!$B$2:$K$2</c:f>
+              <c:f>'Kevin''s Tests'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1787,39 +1882,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Marlene''s Tests'!$B$5:$K$5</c:f>
+              <c:f>'Kevin''s Tests'!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1833,12 +1928,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:axId val="131063808"/>
-        <c:axId val="128743040"/>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="343050632"/>
+        <c:axId val="344665800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131063808"/>
+        <c:axId val="343050632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,7 +1976,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128743040"/>
+        <c:crossAx val="344665800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1888,7 +1984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128743040"/>
+        <c:axId val="344665800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,7 +2034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131063808"/>
+        <c:crossAx val="343050632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1950,6 +2046,36 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2060,11 +2186,411 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Marlene''s Tests'!$A$6</c:f>
+              <c:f>'Kevin''s Tests'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Needleman-Wunsch Distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Kevin''s Tests'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v> 1 -&gt; 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 1 -&gt; 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 1 -&gt; 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 1 -&gt; 5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 2 -&gt; 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 2 -&gt; 4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 2 -&gt; 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 3 -&gt; 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 3 -&gt; 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 4 -&gt; 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Kevin''s Tests'!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="344666584"/>
+        <c:axId val="344666976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="344666584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344666976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="344666976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344666584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Marlene''s Tests'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Levenshtein's Distance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2156,39 +2682,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Marlene''s Tests'!$B$6:$K$6</c:f>
+              <c:f>'Marlene''s Tests'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-6</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-47</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-47</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2203,11 +2729,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:axId val="131064320"/>
-        <c:axId val="128744768"/>
+        <c:axId val="344667760"/>
+        <c:axId val="344668152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131064320"/>
+        <c:axId val="344667760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,7 +2775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128744768"/>
+        <c:crossAx val="344668152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2257,7 +2783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128744768"/>
+        <c:axId val="344668152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131064320"/>
+        <c:crossAx val="344667760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2367,7 +2893,1114 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Marlene''s Tests'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jaro-Winkler Distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Marlene''s Tests'!$B$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v> 1 -&gt; 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 1 -&gt; 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 1 -&gt; 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 1 -&gt; 5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 2 -&gt; 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 2 -&gt; 4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 2 -&gt; 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 3 -&gt; 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 3 -&gt; 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 4 -&gt; 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Marlene''s Tests'!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.70674199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47647499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64671900000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60762000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85464099999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70674199999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84947399999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47611700000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64671900000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:axId val="344668936"/>
+        <c:axId val="344669328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="344668936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344669328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="344669328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344668936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Marlene''s Tests'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hunt-McIlroy Distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Marlene''s Tests'!$B$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v> 1 -&gt; 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 1 -&gt; 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 1 -&gt; 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 1 -&gt; 5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 2 -&gt; 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 2 -&gt; 4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 2 -&gt; 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 3 -&gt; 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 3 -&gt; 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 4 -&gt; 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Marlene''s Tests'!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:axId val="344670112"/>
+        <c:axId val="344670504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="344670112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344670504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="344670504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344670112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Marlene''s Tests'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Needleman-Wunsch Distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Marlene''s Tests'!$B$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v> 1 -&gt; 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 1 -&gt; 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 1 -&gt; 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 1 -&gt; 5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 2 -&gt; 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 2 -&gt; 4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 2 -&gt; 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 3 -&gt; 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 3 -&gt; 5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 4 -&gt; 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Marlene''s Tests'!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:axId val="344671288"/>
+        <c:axId val="344671680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="344671288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344671680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="344671680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344671288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2785,11 +4418,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="131133440"/>
-        <c:axId val="132056192"/>
+        <c:axId val="344672464"/>
+        <c:axId val="344672856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131133440"/>
+        <c:axId val="344672464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2831,7 +4464,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132056192"/>
+        <c:crossAx val="344672856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2839,7 +4472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132056192"/>
+        <c:axId val="344672856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2889,7 +4522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131133440"/>
+        <c:crossAx val="344672464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3235,11 +4868,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="130050560"/>
-        <c:axId val="128455744"/>
+        <c:axId val="343044752"/>
+        <c:axId val="343045144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130050560"/>
+        <c:axId val="343044752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +4914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128455744"/>
+        <c:crossAx val="343045144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3289,7 +4922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128455744"/>
+        <c:axId val="343045144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3339,7 +4972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130050560"/>
+        <c:crossAx val="343044752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3685,11 +5318,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="130051072"/>
-        <c:axId val="128457472"/>
+        <c:axId val="343045928"/>
+        <c:axId val="343046320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130051072"/>
+        <c:axId val="343045928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3731,7 +5364,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128457472"/>
+        <c:crossAx val="343046320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3739,7 +5372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128457472"/>
+        <c:axId val="343046320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3789,7 +5422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130051072"/>
+        <c:crossAx val="343045928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4135,11 +5768,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="130051584"/>
-        <c:axId val="130646592"/>
+        <c:axId val="343047104"/>
+        <c:axId val="343047496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130051584"/>
+        <c:axId val="343047104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4181,7 +5814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130646592"/>
+        <c:crossAx val="343047496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4189,7 +5822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130646592"/>
+        <c:axId val="343047496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4239,7 +5872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130051584"/>
+        <c:crossAx val="343047104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4344,6 +5977,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Complexity - Levenshtein's vs Jaro-Winkler</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4357,19 +6016,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -4389,137 +6042,123 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Kevin''s Tests'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Levenshtein's Distance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Kevin''s Tests'!$B$1:$K$1</c:f>
+              <c:f>'Sample of Time Complexity Chart'!$A$5:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v> 1 -&gt; 2</c:v>
+                  <c:v>Levenshtein's  - Greg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> 1 -&gt; 3</c:v>
+                  <c:v>Levenshtein's - Kevin</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 1 -&gt; 4</c:v>
+                  <c:v>Levenshtein's - Marlene</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 1 -&gt; 5</c:v>
+                  <c:v>Jaro-Winkler - Greg</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 2 -&gt; 3</c:v>
+                  <c:v>Jaro-Winkler - Kevin</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> 2 -&gt; 4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> 2 -&gt; 5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v> 3 -&gt; 4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v> 3 -&gt; 5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v> 4 -&gt; 5</c:v>
+                  <c:v>Jaro-Winkler - Marlene</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Kevin''s Tests'!$B$2:$K$2</c:f>
+              <c:f>'Sample of Time Complexity Chart'!$B$5:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>3.7692866999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>3.3205800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>3.6413833333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.9305999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>1.6921966666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>7.8035999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4527,19 +6166,19 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="131134976"/>
-        <c:axId val="130648896"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="344719176"/>
+        <c:axId val="344716432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131134976"/>
+        <c:axId val="344719176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4551,11 +6190,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4569,8 +6208,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4581,7 +6221,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130648896"/>
+        <c:crossAx val="344716432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4589,57 +6229,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130648896"/>
+        <c:axId val="344716432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="131134976"/>
+        <c:crossAx val="344719176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4651,63 +6251,22 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -4744,6 +6303,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Complexity - Levenshtein's vs Hunt-McIlroy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4757,19 +6342,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -4789,137 +6368,123 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Kevin''s Tests'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jaro-Winkler Distance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Kevin''s Tests'!$B$1:$K$1</c:f>
+              <c:f>('Sample of Time Complexity Chart'!$A$5:$A$7,'Sample of Time Complexity Chart'!$A$11:$A$13)</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v> 1 -&gt; 2</c:v>
+                  <c:v>Levenshtein's  - Greg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> 1 -&gt; 3</c:v>
+                  <c:v>Levenshtein's - Kevin</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 1 -&gt; 4</c:v>
+                  <c:v>Levenshtein's - Marlene</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 1 -&gt; 5</c:v>
+                  <c:v>Hunt-McIlroy - Greg</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 2 -&gt; 3</c:v>
+                  <c:v>Hunt-McIlroy - Kevin</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> 2 -&gt; 4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> 2 -&gt; 5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v> 3 -&gt; 4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v> 3 -&gt; 5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v> 4 -&gt; 5</c:v>
+                  <c:v>Hint-McIlroy - Marlene</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Kevin''s Tests'!$B$3:$K$3</c:f>
+              <c:f>('Sample of Time Complexity Chart'!$B$5:$B$7,'Sample of Time Complexity Chart'!$B$11:$B$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.89578800000000003</c:v>
+                  <c:v>3.7692866999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90329000000000004</c:v>
+                  <c:v>3.3205800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89908699999999997</c:v>
+                  <c:v>3.6413833333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>5.3359999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89473999999999998</c:v>
+                  <c:v>1.62769E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88696900000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.89578800000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94930099999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.90329000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89908699999999997</c:v>
+                  <c:v>7.8035999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4927,19 +6492,19 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="75"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="131136000"/>
-        <c:axId val="130650624"/>
+        <c:axId val="378754376"/>
+        <c:axId val="378757904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131136000"/>
+        <c:axId val="378754376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4951,11 +6516,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4969,8 +6534,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4981,7 +6547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130650624"/>
+        <c:crossAx val="378757904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4989,57 +6555,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130650624"/>
+        <c:axId val="378757904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="131136000"/>
+        <c:crossAx val="378754376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5051,63 +6577,22 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -5144,6 +6629,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Complexity - Levenshtein's vs Needleman-Wunsch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5157,19 +6668,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -5189,137 +6694,123 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Kevin''s Tests'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hunt-McIlroy Distance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Kevin''s Tests'!$B$1:$K$1</c:f>
+              <c:f>('Sample of Time Complexity Chart'!$A$5:$A$7,'Sample of Time Complexity Chart'!$A$14:$A$16)</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v> 1 -&gt; 2</c:v>
+                  <c:v>Levenshtein's  - Greg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> 1 -&gt; 3</c:v>
+                  <c:v>Levenshtein's - Kevin</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 1 -&gt; 4</c:v>
+                  <c:v>Levenshtein's - Marlene</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 1 -&gt; 5</c:v>
+                  <c:v>Needleman-Wunsch - Greg</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 2 -&gt; 3</c:v>
+                  <c:v>Needleman-Wunsch - Kevin</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> 2 -&gt; 4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> 2 -&gt; 5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v> 3 -&gt; 4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v> 3 -&gt; 5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v> 4 -&gt; 5</c:v>
+                  <c:v>Needleman-Wunsch - Marlene</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Kevin''s Tests'!$B$4:$K$4</c:f>
+              <c:f>('Sample of Time Complexity Chart'!$B$5:$B$7,'Sample of Time Complexity Chart'!$B$14:$B$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>3.7692866999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>3.3205800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>3.6413833333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109</c:v>
+                  <c:v>4.55319E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>2.5718100000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52</c:v>
+                  <c:v>2.3410799999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5327,19 +6818,19 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="75"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="131136512"/>
-        <c:axId val="130652352"/>
+        <c:axId val="378753200"/>
+        <c:axId val="375114528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131136512"/>
+        <c:axId val="378753200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5351,11 +6842,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -5369,8 +6860,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5381,7 +6873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130652352"/>
+        <c:crossAx val="375114528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5389,57 +6881,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130652352"/>
+        <c:axId val="375114528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="131136512"/>
+        <c:crossAx val="378753200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5451,63 +6903,22 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -5543,89 +6954,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Kevin''s Tests'!$A$5</c:f>
+              <c:f>'Sample of Time Complexity Chart'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Needleman-Wunsch Distance</c:v>
+                  <c:v>Avg Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst>
               <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
@@ -5634,96 +6986,150 @@
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
             <c:strRef>
-              <c:f>'Kevin''s Tests'!$B$1:$K$1</c:f>
+              <c:f>'Sample of Time Complexity Chart'!$A$5:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v> 1 -&gt; 2</c:v>
+                  <c:v>Levenshtein's  - Greg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> 1 -&gt; 3</c:v>
+                  <c:v>Levenshtein's - Kevin</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 1 -&gt; 4</c:v>
+                  <c:v>Levenshtein's - Marlene</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 1 -&gt; 5</c:v>
+                  <c:v>Jaro-Winkler - Greg</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 2 -&gt; 3</c:v>
+                  <c:v>Jaro-Winkler - Kevin</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> 2 -&gt; 4</c:v>
+                  <c:v>Jaro-Winkler - Marlene</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v> 2 -&gt; 5</c:v>
+                  <c:v>Hunt-McIlroy - Greg</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v> 3 -&gt; 4</c:v>
+                  <c:v>Hunt-McIlroy - Kevin</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v> 3 -&gt; 5</c:v>
+                  <c:v>Hint-McIlroy - Marlene</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v> 4 -&gt; 5</c:v>
+                  <c:v>Needleman-Wunsch - Greg</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Needleman-Wunsch - Kevin</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Needleman-Wunsch - Marlene</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Kevin''s Tests'!$B$5:$K$5</c:f>
+              <c:f>'Sample of Time Complexity Chart'!$B$5:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>59</c:v>
+                  <c:v>3.7692866999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>3.3205800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84</c:v>
+                  <c:v>3.6413833333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109</c:v>
+                  <c:v>7.9305999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69</c:v>
+                  <c:v>1.6921966666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>7.8035999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59</c:v>
+                  <c:v>5.3359999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98</c:v>
+                  <c:v>1.62769E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85</c:v>
+                  <c:v>7.8035999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>84</c:v>
+                  <c:v>4.55319E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5718100000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3410799999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5733,29 +7139,115 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="-25"/>
-        <c:axId val="131137024"/>
-        <c:axId val="128737280"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="131137024"/>
+        <c:axId val="412033224"/>
+        <c:axId val="412032440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="412033224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Order</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Data - Greg (1, 4, 7, 10), Kevin (2, 5, 8, 11), Marlene (3, 6, 9, 12)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -5769,8 +7261,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5781,15 +7274,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128737280"/>
+        <c:crossAx val="412032440"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="128737280"/>
+        <c:axId val="412032440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5799,9 +7289,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -5809,8 +7299,78 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -5827,8 +7387,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5839,9 +7400,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131137024"/>
+        <c:crossAx val="412033224"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5852,7 +7413,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5868,8 +7430,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -5886,28 +7449,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -5991,7 +7543,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Marlene''s Tests'!$A$3</c:f>
+              <c:f>'Kevin''s Tests'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6004,19 +7556,19 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:shade val="51000"/>
                     <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="80000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:shade val="93000"/>
                     <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent1">
                     <a:shade val="94000"/>
                     <a:satMod val="135000"/>
                   </a:schemeClr>
@@ -6049,7 +7601,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Marlene''s Tests'!$B$2:$K$2</c:f>
+              <c:f>'Kevin''s Tests'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6087,39 +7639,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Marlene''s Tests'!$B$3:$K$3</c:f>
+              <c:f>'Kevin''s Tests'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6133,12 +7685,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:axId val="131560960"/>
-        <c:axId val="128739584"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="343048280"/>
+        <c:axId val="343048672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131560960"/>
+        <c:axId val="343048280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6180,7 +7733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128739584"/>
+        <c:crossAx val="343048672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6188,7 +7741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128739584"/>
+        <c:axId val="343048672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6238,7 +7791,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131560960"/>
+        <c:crossAx val="343048280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6250,6 +7803,36 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6305,6 +7888,123 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -6341,7 +8041,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -6378,7 +8078,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -6415,7 +8115,44 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6474,10 +8211,13 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -6511,10 +8251,13 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -6628,10 +8371,10 @@
 </file>
 
 <file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent6"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -7161,7 +8904,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7264,7 +9007,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -7274,7 +9017,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -7284,7 +9027,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -7304,7 +9047,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -7315,7 +9058,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -7323,7 +9066,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7360,7 +9103,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7384,7 +9127,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -7403,7 +9146,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -7421,7 +9164,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -7429,7 +9172,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -7448,7 +9191,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
@@ -7466,7 +9209,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -7485,7 +9228,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -7514,7 +9257,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -7522,7 +9265,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -7592,7 +9335,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -7618,7 +9361,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7650,14 +9393,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7760,7 +9503,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -7770,7 +9513,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -7780,7 +9523,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -7800,7 +9543,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -7811,7 +9554,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -7819,7 +9562,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7856,7 +9599,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7880,7 +9623,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -7899,7 +9642,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -7917,7 +9660,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -7925,7 +9668,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -7944,7 +9687,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
@@ -7962,7 +9705,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -7981,7 +9724,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -8010,7 +9753,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -8018,7 +9761,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -8088,7 +9831,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -8114,7 +9857,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8146,14 +9889,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8256,7 +9999,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -8266,7 +10009,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -8276,7 +10019,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -8296,7 +10039,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -8307,7 +10050,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -8315,7 +10058,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8352,7 +10095,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8376,7 +10119,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -8395,7 +10138,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -8413,7 +10156,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -8421,7 +10164,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -8440,7 +10183,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
@@ -8458,7 +10201,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -8477,7 +10220,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -8506,7 +10249,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -8514,7 +10257,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -8584,7 +10327,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -8610,7 +10353,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8642,14 +10385,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8752,7 +10495,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -8762,7 +10505,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -8772,7 +10515,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -8792,7 +10535,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -8803,7 +10546,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -8811,7 +10554,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8848,7 +10591,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8872,7 +10615,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -8891,7 +10634,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -8909,7 +10652,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -8917,7 +10660,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -8936,7 +10679,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
@@ -8954,7 +10697,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -8973,7 +10716,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -9002,7 +10745,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -9010,7 +10753,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -9080,7 +10823,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -9106,7 +10849,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9138,14 +10881,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9299,7 +11042,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -9640,8 +11383,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9795,7 +11538,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -10136,8 +11879,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10291,7 +12034,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -10632,7 +12375,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11128,8 +12871,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11232,7 +12975,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -11242,7 +12985,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -11252,7 +12995,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -11272,7 +13015,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -11291,7 +13034,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11328,7 +13071,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11352,7 +13095,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -11371,7 +13114,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -11389,7 +13132,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -11397,7 +13140,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -11416,7 +13159,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
@@ -11434,7 +13177,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -11453,7 +13196,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -11482,7 +13225,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -11490,7 +13233,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -11560,7 +13303,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -11586,7 +13329,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11618,14 +13361,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11728,7 +13471,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -11738,7 +13481,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -11748,7 +13491,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -11768,7 +13511,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -11787,7 +13530,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11824,7 +13567,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11848,7 +13591,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -11867,7 +13610,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -11885,7 +13628,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -11893,7 +13636,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -11912,7 +13655,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
@@ -11930,7 +13673,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -11949,7 +13692,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -11978,7 +13721,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -11986,7 +13729,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -12056,7 +13799,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -12082,7 +13825,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12114,14 +13857,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12224,7 +13967,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -12234,7 +13977,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -12244,7 +13987,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -12264,7 +14007,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -12283,7 +14026,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -12320,7 +14063,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12344,7 +14087,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -12363,7 +14106,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -12381,7 +14124,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -12389,7 +14132,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -12408,7 +14151,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
@@ -12426,7 +14169,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -12445,7 +14188,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -12474,7 +14217,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -12482,7 +14225,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -12552,7 +14295,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -12578,7 +14321,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12601,6 +14344,2017 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
         <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -12617,7 +16371,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12720,7 +16474,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -12730,7 +16484,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -12740,7 +16494,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -12760,7 +16514,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -12771,7 +16525,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -12779,7 +16533,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -12816,7 +16570,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12840,7 +16594,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -12859,7 +16613,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -12877,7 +16631,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -12885,7 +16639,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -12904,7 +16658,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
@@ -12922,7 +16676,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -12941,7 +16695,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -12970,7 +16724,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -12978,7 +16732,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -13048,7 +16802,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -13074,7 +16828,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -13106,7 +16860,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -13458,6 +17212,131 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -13577,7 +17456,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13626,7 +17505,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13751,7 +17630,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13829,7 +17708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13864,7 +17743,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14334,7 +18213,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:K15"/>
+      <selection activeCell="A2" sqref="A2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14714,8 +18593,8 @@
   </sheetPr>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14727,46 +18606,46 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -14774,46 +18653,46 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>20</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>9</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>10</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>17</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>18</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>20</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>5</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>9</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>10</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>0.154304</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>0.164076</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>0.165051</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <f>AVERAGE(L2:N2)</f>
         <v>0.16114366666666666</v>
       </c>
@@ -14822,46 +18701,46 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0.89578800000000003</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>0.90329000000000004</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>0.89908699999999997</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>0.89473999999999998</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>0.88696900000000001</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>0.89578800000000003</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>0.94930099999999995</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>0.90329000000000004</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>0.89908699999999997</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>2.2464000000000001E-2</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>6.3476199999999997E-2</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>6.2502299999999997E-2</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
         <f t="shared" ref="O3:O5" si="0">AVERAGE(L3:N3)</f>
         <v>4.9480833333333328E-2</v>
       </c>
@@ -14870,46 +18749,46 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>84</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>55</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>55</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>109</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>55</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>55</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>88</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>97</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>52</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>52</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>2.44218E-2</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>6.1529300000000002E-2</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>3.6135E-2</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="9">
         <f t="shared" si="0"/>
         <v>4.069536666666667E-2</v>
       </c>
@@ -14918,92 +18797,92 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>59</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>85</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>84</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>109</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>69</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>66</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>59</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>98</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>85</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>84</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>0.112313</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>0.11622</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>0.108406</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <f t="shared" si="0"/>
         <v>0.112313</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -15011,25 +18890,25 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>11</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>14</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>6</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>2.63707E-2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>3.4180000000000002E-2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>3.9066700000000003E-2</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f>AVERAGE(E10:G10)</f>
         <v>3.3205800000000001E-2</v>
       </c>
@@ -15038,25 +18917,25 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0.83084000000000002</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>0.899733</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>0.90097499999999997</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>5.8551999999999996E-3</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>2.24548E-2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>2.2455900000000001E-2</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <f t="shared" ref="H11:H13" si="1">AVERAGE(E11:G11)</f>
         <v>1.6921966666666666E-2</v>
       </c>
@@ -15065,25 +18944,25 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>37</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>23</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>23</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>5.8605000000000003E-3</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>2.1484300000000001E-2</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>2.1485899999999999E-2</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <f t="shared" si="1"/>
         <v>1.62769E-2</v>
       </c>
@@ -15092,39 +18971,39 @@
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>50</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>40</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>64</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>2.05124E-2</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>2.6367600000000001E-2</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>3.0274300000000001E-2</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f t="shared" si="1"/>
         <v>2.5718100000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15134,6 +19013,238 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="15">
+        <v>3.7692866999999998E-2</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="15">
+        <f>'Kevin''s Tests'!H10</f>
+        <v>3.3205800000000001E-2</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="15">
+        <f>'Marlene''s Tests'!H10</f>
+        <v>3.6413833333333333E-2</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>7.9305999999999995E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="15">
+        <f>'Kevin''s Tests'!H11</f>
+        <v>1.6921966666666666E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="15">
+        <f>'Marlene''s Tests'!H11</f>
+        <v>7.8035999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>5.3359999999999996E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="15">
+        <f>'Kevin''s Tests'!H12</f>
+        <v>1.62769E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="15">
+        <f>'Marlene''s Tests'!H12</f>
+        <v>7.8035999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>4.55319E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="15">
+        <f>'Kevin''s Tests'!H13</f>
+        <v>2.5718100000000004E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="15">
+        <f>'Marlene''s Tests'!H13</f>
+        <v>2.3410799999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="18">
+        <f>AVERAGE(B5:B16)</f>
+        <v>2.2003830583333332E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Sample of Time Complexity Chart'!B14:B16</xm:f>
+              <xm:sqref>C14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" negative="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Sample of Time Complexity Chart'!B11:B13</xm:f>
+              <xm:sqref>C11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Sample of Time Complexity Chart'!B8:B10</xm:f>
+              <xm:sqref>C8</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Sample of Time Complexity Chart'!B5:B7</xm:f>
+              <xm:sqref>C5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -15151,7 +19262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
@@ -15159,7 +19270,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A9" sqref="A9:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15556,7 +19667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -15574,7 +19685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -15676,36 +19787,36 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/FinalExcelwithCharts/Result.xlsx
+++ b/FinalExcelwithCharts/Result.xlsx
@@ -769,10 +769,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -847,7 +847,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -996,11 +995,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="396964704"/>
-        <c:axId val="396964312"/>
+        <c:axId val="185453112"/>
+        <c:axId val="185453504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="396964704"/>
+        <c:axId val="185453112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,7 +1041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396964312"/>
+        <c:crossAx val="185453504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1050,7 +1049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="396964312"/>
+        <c:axId val="185453504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396964704"/>
+        <c:crossAx val="185453112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1114,7 +1113,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1237,7 +1235,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1483,11 +1480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="468307408"/>
-        <c:axId val="468307800"/>
+        <c:axId val="186008784"/>
+        <c:axId val="186015448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="468307408"/>
+        <c:axId val="186008784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468307800"/>
+        <c:crossAx val="186015448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1537,7 +1534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468307800"/>
+        <c:axId val="186015448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,7 +1584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468307408"/>
+        <c:crossAx val="186008784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1662,7 +1659,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1854,11 +1850,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="315791840"/>
-        <c:axId val="315792232"/>
+        <c:axId val="186011528"/>
+        <c:axId val="186734624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="315791840"/>
+        <c:axId val="186011528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,7 +1896,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315792232"/>
+        <c:crossAx val="186734624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1908,7 +1904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315792232"/>
+        <c:axId val="186734624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,7 +1954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315791840"/>
+        <c:crossAx val="186011528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1972,7 +1968,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2064,7 +2059,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2256,11 +2250,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="315794584"/>
-        <c:axId val="315794192"/>
+        <c:axId val="186735408"/>
+        <c:axId val="186735800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="315794584"/>
+        <c:axId val="186735408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,7 +2296,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315794192"/>
+        <c:crossAx val="186735800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2310,7 +2304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315794192"/>
+        <c:axId val="186735800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2360,7 +2354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315794584"/>
+        <c:crossAx val="186735408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2374,7 +2368,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2466,7 +2459,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2658,11 +2650,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="315793408"/>
-        <c:axId val="315793016"/>
+        <c:axId val="186736584"/>
+        <c:axId val="186736976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="315793408"/>
+        <c:axId val="186736584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,7 +2696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315793016"/>
+        <c:crossAx val="186736976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2712,7 +2704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315793016"/>
+        <c:axId val="186736976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,7 +2754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315793408"/>
+        <c:crossAx val="186736584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2776,7 +2768,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2868,7 +2859,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3060,11 +3050,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="315795368"/>
-        <c:axId val="315795760"/>
+        <c:axId val="186737760"/>
+        <c:axId val="186738152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="315795368"/>
+        <c:axId val="186737760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3106,7 +3096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315795760"/>
+        <c:crossAx val="186738152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3114,7 +3104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315795760"/>
+        <c:axId val="186738152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3164,7 +3154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315795368"/>
+        <c:crossAx val="186737760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3178,7 +3168,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3301,7 +3290,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3548,11 +3536,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="467281064"/>
-        <c:axId val="467280672"/>
+        <c:axId val="186738936"/>
+        <c:axId val="186739328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="467281064"/>
+        <c:axId val="186738936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3594,7 +3582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467280672"/>
+        <c:crossAx val="186739328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3602,7 +3590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="467280672"/>
+        <c:axId val="186739328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3652,7 +3640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467281064"/>
+        <c:crossAx val="186738936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3918,11 +3906,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:axId val="316414296"/>
-        <c:axId val="316414688"/>
+        <c:axId val="186740112"/>
+        <c:axId val="186740504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316414296"/>
+        <c:axId val="186740112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3964,7 +3952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316414688"/>
+        <c:crossAx val="186740504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3972,7 +3960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316414688"/>
+        <c:axId val="186740504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4022,7 +4010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316414296"/>
+        <c:crossAx val="186740112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4288,11 +4276,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:axId val="316415472"/>
-        <c:axId val="316415864"/>
+        <c:axId val="186741288"/>
+        <c:axId val="186741680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316415472"/>
+        <c:axId val="186741288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4334,7 +4322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316415864"/>
+        <c:crossAx val="186741680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4342,7 +4330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316415864"/>
+        <c:axId val="186741680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4392,7 +4380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316415472"/>
+        <c:crossAx val="186741288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4658,11 +4646,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:axId val="316416648"/>
-        <c:axId val="316417040"/>
+        <c:axId val="186914712"/>
+        <c:axId val="186915104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316416648"/>
+        <c:axId val="186914712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4704,7 +4692,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316417040"/>
+        <c:crossAx val="186915104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4712,7 +4700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316417040"/>
+        <c:axId val="186915104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4762,7 +4750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316416648"/>
+        <c:crossAx val="186914712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5028,11 +5016,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="115"/>
-        <c:axId val="316417824"/>
-        <c:axId val="316739584"/>
+        <c:axId val="186915888"/>
+        <c:axId val="186916280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316417824"/>
+        <c:axId val="186915888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5074,7 +5062,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316739584"/>
+        <c:crossAx val="186916280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5082,7 +5070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316739584"/>
+        <c:axId val="186916280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5132,7 +5120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316417824"/>
+        <c:crossAx val="186915888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5207,7 +5195,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5356,11 +5343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="393615496"/>
-        <c:axId val="393616280"/>
+        <c:axId val="185454288"/>
+        <c:axId val="185454680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="393615496"/>
+        <c:axId val="185454288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5402,7 +5389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393616280"/>
+        <c:crossAx val="185454680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5410,7 +5397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393616280"/>
+        <c:axId val="185454680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5460,7 +5447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393615496"/>
+        <c:crossAx val="185454288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5474,7 +5461,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5566,6 +5552,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Levenshtein's vs Hunt-McIlroy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5813,11 +5830,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="401481184"/>
-        <c:axId val="401481576"/>
+        <c:axId val="186917064"/>
+        <c:axId val="186917456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="401481184"/>
+        <c:axId val="186917064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5859,7 +5876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401481576"/>
+        <c:crossAx val="186917456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5867,7 +5884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401481576"/>
+        <c:axId val="186917456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5917,7 +5934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401481184"/>
+        <c:crossAx val="186917064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6395,11 +6412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="316740368"/>
-        <c:axId val="316740760"/>
+        <c:axId val="186918240"/>
+        <c:axId val="186918632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316740368"/>
+        <c:axId val="186918240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6441,7 +6458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316740760"/>
+        <c:crossAx val="186918632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6449,7 +6466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316740760"/>
+        <c:axId val="186918632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6499,7 +6516,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316740368"/>
+        <c:crossAx val="186918240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6883,11 +6900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="315796544"/>
-        <c:axId val="315796936"/>
+        <c:axId val="186919416"/>
+        <c:axId val="186919808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="315796544"/>
+        <c:axId val="186919416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6930,7 +6947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315796936"/>
+        <c:crossAx val="186919808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6938,7 +6955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315796936"/>
+        <c:axId val="186919808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6989,7 +7006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315796544"/>
+        <c:crossAx val="186919416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7276,11 +7293,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="315797720"/>
-        <c:axId val="315798112"/>
+        <c:axId val="186920592"/>
+        <c:axId val="186920984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="315797720"/>
+        <c:axId val="186920592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7323,7 +7340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315798112"/>
+        <c:crossAx val="186920984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7331,7 +7348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315798112"/>
+        <c:axId val="186920984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7438,7 +7455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315797720"/>
+        <c:crossAx val="186920592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7732,11 +7749,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="316411160"/>
-        <c:axId val="316411552"/>
+        <c:axId val="187785736"/>
+        <c:axId val="187786128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316411160"/>
+        <c:axId val="187785736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7779,7 +7796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316411552"/>
+        <c:crossAx val="187786128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7787,7 +7804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316411552"/>
+        <c:axId val="187786128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7894,7 +7911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316411160"/>
+        <c:crossAx val="187785736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8188,11 +8205,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="316412728"/>
-        <c:axId val="316413120"/>
+        <c:axId val="187787304"/>
+        <c:axId val="187787696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316412728"/>
+        <c:axId val="187787304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8235,7 +8252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316413120"/>
+        <c:crossAx val="187787696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8243,7 +8260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316413120"/>
+        <c:axId val="187787696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8350,7 +8367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316412728"/>
+        <c:crossAx val="187787304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8453,7 +8470,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8602,11 +8618,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="401452792"/>
-        <c:axId val="401453184"/>
+        <c:axId val="185455464"/>
+        <c:axId val="185455856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="401452792"/>
+        <c:axId val="185455464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8648,7 +8664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401453184"/>
+        <c:crossAx val="185455856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8656,7 +8672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401453184"/>
+        <c:axId val="185455856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8706,7 +8722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401452792"/>
+        <c:crossAx val="185455464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8720,7 +8736,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8812,7 +8827,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8961,11 +8975,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="469475272"/>
-        <c:axId val="396963528"/>
+        <c:axId val="185456640"/>
+        <c:axId val="186008000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="469475272"/>
+        <c:axId val="185456640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9007,7 +9021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396963528"/>
+        <c:crossAx val="186008000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9015,7 +9029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="396963528"/>
+        <c:axId val="186008000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9065,7 +9079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469475272"/>
+        <c:crossAx val="185456640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9079,7 +9093,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9202,7 +9215,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9419,9 +9431,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9439,9 +9449,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9459,9 +9467,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9501,7 +9507,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9758,11 +9763,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="400746248"/>
-        <c:axId val="395557136"/>
+        <c:axId val="186010352"/>
+        <c:axId val="186010744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="400746248"/>
+        <c:axId val="186010352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9804,7 +9809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395557136"/>
+        <c:crossAx val="186010744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9812,7 +9817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395557136"/>
+        <c:axId val="186010744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9862,7 +9867,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400746248"/>
+        <c:crossAx val="186010352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9876,7 +9881,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9968,7 +9972,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10209,11 +10212,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="246467840"/>
-        <c:axId val="246468624"/>
+        <c:axId val="186011920"/>
+        <c:axId val="186012312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246467840"/>
+        <c:axId val="186011920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10255,7 +10258,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246468624"/>
+        <c:crossAx val="186012312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10263,7 +10266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246468624"/>
+        <c:axId val="186012312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10313,7 +10316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246467840"/>
+        <c:crossAx val="186011920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10327,7 +10330,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10419,7 +10421,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10661,11 +10662,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="246469408"/>
-        <c:axId val="246469800"/>
+        <c:axId val="186013096"/>
+        <c:axId val="186013488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246469408"/>
+        <c:axId val="186013096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10707,7 +10708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246469800"/>
+        <c:crossAx val="186013488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10715,7 +10716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246469800"/>
+        <c:axId val="186013488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10765,7 +10766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246469408"/>
+        <c:crossAx val="186013096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10779,7 +10780,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10871,7 +10871,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11113,11 +11112,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="246470584"/>
-        <c:axId val="246470976"/>
+        <c:axId val="186014272"/>
+        <c:axId val="186014664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="246470584"/>
+        <c:axId val="186014272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11159,7 +11158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246470976"/>
+        <c:crossAx val="186014664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11167,7 +11166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246470976"/>
+        <c:axId val="186014664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11217,7 +11216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246470584"/>
+        <c:crossAx val="186014272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11231,7 +11230,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11323,7 +11321,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11565,11 +11562,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="315790664"/>
-        <c:axId val="315791056"/>
+        <c:axId val="186009960"/>
+        <c:axId val="186009568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="315790664"/>
+        <c:axId val="186009960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11611,7 +11608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315791056"/>
+        <c:crossAx val="186009568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11619,7 +11616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315791056"/>
+        <c:axId val="186009568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11669,7 +11666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315790664"/>
+        <c:crossAx val="186009960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11683,7 +11680,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26268,8 +26264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26278,11 +26274,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -27686,8 +27682,8 @@
   </sheetPr>
   <dimension ref="A33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27805,36 +27801,36 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
